--- a/biology/Médecine/University_College_Hospital/University_College_Hospital.xlsx
+++ b/biology/Médecine/University_College_Hospital/University_College_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 University College Hospital est un centre hospitalier universitaire de Londres en Angleterre, situé tout près de la Gare d'Euston. C'est une composante du University College Hospitals London NHS Trust et il est associé à une des universités de Londres, la University College London (UCL).
